--- a/Data/Reports/SISPRO SA SERVICOS E TECNOLOGIA DA INFOR.xlsx
+++ b/Data/Reports/SISPRO SA SERVICOS E TECNOLOGIA DA INFOR.xlsx
@@ -1348,13 +1348,33 @@
       <c r="BT2" s="61" t="n"/>
     </row>
     <row r="3" ht="15.95" customHeight="1" s="18">
-      <c r="A3" s="32" t="n"/>
+      <c r="A3" s="32" t="inlineStr">
+        <is>
+          <t>00009</t>
+        </is>
+      </c>
       <c r="B3" s="32" t="n"/>
       <c r="C3" s="32" t="n"/>
-      <c r="D3" s="32" t="n"/>
-      <c r="E3" s="49" t="n"/>
-      <c r="F3" s="49" t="n"/>
-      <c r="G3" s="89" t="n"/>
+      <c r="D3" s="32" t="inlineStr">
+        <is>
+          <t>001118194201551</t>
+        </is>
+      </c>
+      <c r="E3" s="49" t="inlineStr">
+        <is>
+          <t>SISPRO SA SERVICOS E TECNOLOGIA DA INFOR</t>
+        </is>
+      </c>
+      <c r="F3" s="49" t="inlineStr">
+        <is>
+          <t>ELIEL FRANCA GOMES</t>
+        </is>
+      </c>
+      <c r="G3" s="89" t="inlineStr">
+        <is>
+          <t>6.050,35</t>
+        </is>
+      </c>
       <c r="H3" s="34" t="n"/>
       <c r="I3" s="32" t="n"/>
       <c r="J3" s="32" t="n"/>
@@ -1379,11 +1399,27 @@
       <c r="AC3" s="38" t="n"/>
       <c r="AD3" s="38" t="n"/>
       <c r="AE3" s="38" t="n"/>
-      <c r="AF3" s="90" t="n"/>
-      <c r="AG3" s="90" t="n"/>
-      <c r="AH3" s="32" t="n"/>
+      <c r="AF3" s="90" t="inlineStr">
+        <is>
+          <t>09901300359122</t>
+        </is>
+      </c>
+      <c r="AG3" s="90" t="inlineStr">
+        <is>
+          <t>00000000605</t>
+        </is>
+      </c>
+      <c r="AH3" s="32" t="inlineStr">
+        <is>
+          <t>25/04/2016</t>
+        </is>
+      </c>
       <c r="AI3" s="32" t="n"/>
-      <c r="AJ3" s="32" t="n"/>
+      <c r="AJ3" s="32" t="inlineStr">
+        <is>
+          <t>12307364511</t>
+        </is>
+      </c>
       <c r="AK3" s="32" t="n"/>
       <c r="AL3" s="32" t="n"/>
       <c r="AM3" s="32" t="n"/>
